--- a/List of materials.xlsx
+++ b/List of materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/c_m_v_riet_tue_nl/Documents/DESIGN/Github/Origami-vibration-robot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{EA4FA6C8-EEC8-41CB-B1CA-F14A67DAC520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{229F1E30-FB62-48B7-99D5-E291FBD2FCFB}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{EA4FA6C8-EEC8-41CB-B1CA-F14A67DAC520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A123B39-7BBC-47DE-B43A-C721A6FF888C}"/>
   <bookViews>
     <workbookView xWindow="29760" yWindow="450" windowWidth="21255" windowHeight="11505" xr2:uid="{1EA8CBD4-A0C6-4012-8B17-1E254A1E1713}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>number</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>glitters, stickers, pompoms, etc.</t>
+  </si>
+  <si>
+    <t>googly eyes</t>
+  </si>
+  <si>
+    <t>HEMA</t>
   </si>
 </sst>
 </file>
@@ -180,10 +186,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -503,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27B4B9A-0106-4D92-A9CD-AC793879477D}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,26 +609,40 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B9" s="5">
         <v>1</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C9" s="6">
         <v>0.25</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="4">
-        <f>SUM(C4:C8)</f>
-        <v>1.8747400000000001</v>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="4">
+        <f>SUM(C4:C9)</f>
+        <v>1.9247400000000001</v>
       </c>
     </row>
   </sheetData>
